--- a/addb.xlsx
+++ b/addb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WINN/botnoi/botnoi2020/linesiit/botnoiengine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\botzonetap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA9D0B4-0696-F34A-BA4F-65787C27F82D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE85435A-5B29-4809-891C-2C6A64FA3DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="5380" windowWidth="28040" windowHeight="16760" xr2:uid="{7BAF2B9B-D2D2-784C-BC1B-1191F2E00F88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BAF2B9B-D2D2-784C-BC1B-1191F2E00F88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>ProductName</t>
   </si>
@@ -85,13 +85,37 @@
   </si>
   <si>
     <t>โทรสั่ง  0123456789</t>
+  </si>
+  <si>
+    <t>โอม</t>
+  </si>
+  <si>
+    <t>ณัฐวุฒิ วงษ์ใหญ่</t>
+  </si>
+  <si>
+    <t>http://www.peane2adhoc.com/myhtml/img/ome.jpg</t>
+  </si>
+  <si>
+    <t>จุดแข็ง : รูปหล่อ มาดเท่ มี sandbox 1x1   จุดอ่อน : มีคนที่รักและหวังดีอยุ่แล้ว</t>
+  </si>
+  <si>
+    <t>ตูน</t>
+  </si>
+  <si>
+    <t>ต่วยตูน</t>
+  </si>
+  <si>
+    <t>http://www.peane2adhoc.com/myhtml/img/toon.jpg</t>
+  </si>
+  <si>
+    <t>หรรมไม่ใหญ่ แต่ไข่น่าหยิก</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -466,19 +490,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8479B86-B1E0-F94D-9D76-E7CCECF6772A}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.69921875" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.19921875" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -495,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -512,7 +536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="24.6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -529,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -546,7 +570,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="D9" s="4"/>
     </row>
   </sheetData>

--- a/addb.xlsx
+++ b/addb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\botzonetap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE85435A-5B29-4809-891C-2C6A64FA3DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D754B9-8DCB-4AF2-BDE1-228459EEDEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BAF2B9B-D2D2-784C-BC1B-1191F2E00F88}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>ณัฐวุฒิ วงษ์ใหญ่</t>
   </si>
   <si>
-    <t>http://www.peane2adhoc.com/myhtml/img/ome.jpg</t>
-  </si>
-  <si>
     <t>จุดแข็ง : รูปหล่อ มาดเท่ มี sandbox 1x1   จุดอ่อน : มีคนที่รักและหวังดีอยุ่แล้ว</t>
   </si>
   <si>
@@ -105,10 +102,13 @@
     <t>ต่วยตูน</t>
   </si>
   <si>
-    <t>http://www.peane2adhoc.com/myhtml/img/toon.jpg</t>
-  </si>
-  <si>
     <t>หรรมไม่ใหญ่ แต่ไข่น่าหยิก</t>
+  </si>
+  <si>
+    <t>https://www.peane2adhoc.com/myhtml/img/toon.jpg</t>
+  </si>
+  <si>
+    <t>https://www.peane2adhoc.com/myhtml/img/ome.jpg</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8479B86-B1E0-F94D-9D76-E7CCECF6772A}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -577,11 +577,11 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -611,6 +611,8 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E57EE574-CC59-DA40-A830-33BA46694548}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{C9EF01BE-327D-1240-9084-3C318449914E}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{799721B7-3AB4-4CAF-899D-C49B05E68181}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{87E38314-C782-4E8E-974D-26651699F64B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
